--- a/cache/1273e544-688f-496b-8d89-3e0f40aa0606/NetIncome.xlsx
+++ b/cache/1273e544-688f-496b-8d89-3e0f40aa0606/NetIncome.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -128,133 +128,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>39929</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>55389</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>52686</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>49490</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>38279</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>30002</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>56315</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>54870</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>39465</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>26176</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>32121</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>59875</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>42235</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>55101</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>35972</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>51922</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>42471</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>46706</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>58782</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -436,4 +309,131 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>39929</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>55389</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>52686</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>49490</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>38279</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>56315</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>54870</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>39465</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>26176</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>32121</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>59875</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>42235</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>55101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>35972</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>51922</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>42471</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>46706</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>58782</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/cache/1273e544-688f-496b-8d89-3e0f40aa0606/NetIncome.xlsx
+++ b/cache/1273e544-688f-496b-8d89-3e0f40aa0606/NetIncome.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Revenue</t>
   </si>
@@ -128,194 +128,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>39929</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>10828</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>55389</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>14977</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>52686</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>29650</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>49490</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>28708</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>38279</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>10990</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>30002</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>22022</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>56315</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>54870</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>23324</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>39465</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>24834</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>26176</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>24207</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>32121</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>24773</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>59875</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>25871</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>42235</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>22797</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>55101</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>29775</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>35972</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>20109</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>51922</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>12614</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>42471</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>14555</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>46706</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>16246</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>58782</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>25706</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -436,4 +248,132 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:B20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="n">
+        <v>10828</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>14977</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>29650</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>28708</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>22022</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>23324</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>24834</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>24207</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>24773</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>25871</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>22797</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>29775</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>20109</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>12614</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>14555</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>16246</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>25706</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>